--- a/biology/Botanique/Sansevieria_perrotii/Sansevieria_perrotii.xlsx
+++ b/biology/Botanique/Sansevieria_perrotii/Sansevieria_perrotii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria perrotii, également appelée Dracaena perrotii[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria perrotii, également appelée Dracaena perrotii, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente buissonante, Sansevieria perrotii est une espèce de sansevières à feuilles érectiles (six à seize par pied, jusqu'à vingt pour les jeunes plantes), très longues (100 à 150 cm) et moyennement large (3,5 à 5 cm), lisses, de couleur vert-foncé avec des bords brunâtres à rougeâtres[2],[3].
-Elle a été identifiée comme espèce à part entière en 1901 par le botaniste allemand Otto Warburg[4] qui lui donne son nom en hommage au pharmacien et botaniste Émile Perrot (1867-1951).
-Par ailleurs, Sansevieria powellii est possiblement un hybride entre Sansevieria arborescens et Sansevieria perrotii (robusta)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente buissonante, Sansevieria perrotii est une espèce de sansevières à feuilles érectiles (six à seize par pied, jusqu'à vingt pour les jeunes plantes), très longues (100 à 150 cm) et moyennement large (3,5 à 5 cm), lisses, de couleur vert-foncé avec des bords brunâtres à rougeâtres,.
+Elle a été identifiée comme espèce à part entière en 1901 par le botaniste allemand Otto Warburg qui lui donne son nom en hommage au pharmacien et botaniste Émile Perrot (1867-1951).
+Par ailleurs, Sansevieria powellii est possiblement un hybride entre Sansevieria arborescens et Sansevieria perrotii (robusta).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente au Kenya, au nord de la Tanzanie (où l'holotype a été récolté) et dans le sud-est de la République démocratique du Congo[3],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire d'Afrique de l'Est, présente au Kenya, au nord de la Tanzanie (où l'holotype a été récolté) et dans le sud-est de la République démocratique du Congo,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Synonymes et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente plusieurs synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente plusieurs synonymes :
 Sansevieria zanzibarica (Gérôme et Labroy, 1903), rejeté
 Sansevieria ehrenbergii (De Wildeman, 1905), illégitime
 Acyntha robusta (N.E. Brown, 1915 ; ex Chiovenda, 1932)
